--- a/rail-maintenance-data.xlsx
+++ b/rail-maintenance-data.xlsx
@@ -800,688 +800,688 @@
     <t>('PeriodicMaintenance', 'TonnageMaintenance', 'RailTraffic', 'PressureMaps', 'WeatherMaps', 'Replaced', 'AssetFailure', 'TestResult')</t>
   </si>
   <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'Replaced', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'Replaced', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'Replaced', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'Replaced', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'Replaced', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'Replaced', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'Replaced', 'PeriodicMaintenance', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'WeatherMaps', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'WeatherMaps', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'RailTraffic', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'WeatherMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'WeatherMaps', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'WeatherMaps', 'RailTraffic', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'RailTraffic', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'WeatherMaps', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'TonnageMaintenance', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'TonnageMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'TonnageMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'TonnageMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'TonnageMaintenance', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TonnageMaintenance', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'RailTraffic', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TonnageMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TonnageMaintenance', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'TonnageMaintenance', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'TonnageMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'TonnageMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['PeriodicMaintenance', 'WeatherMaps', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'PeriodicMaintenance', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'PeriodicMaintenance', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PeriodicMaintenance', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'RailTraffic', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PeriodicMaintenance', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PeriodicMaintenance', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PeriodicMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PeriodicMaintenance', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'TonnageMaintenance', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'TonnageMaintenance', 'PeriodicMaintenance']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'TonnageMaintenance', 'PeriodicMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'TonnageMaintenance', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TonnageMaintenance', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PeriodicMaintenance', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TonnageMaintenance', 'PeriodicMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TonnageMaintenance', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'TonnageMaintenance', 'PeriodicMaintenance']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['WeatherMaps', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TestResult', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'RailTraffic', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'WeatherMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'WeatherMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PressureMaps', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'WeatherMaps', 'Replaced']</t>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'PressureMaps', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PressureMaps', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'PressureMaps', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'Replaced', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'Replaced', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'PressureMaps', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['RailTraffic', 'Replaced', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PressureMaps', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'PressureMaps', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'PressureMaps', 'PeriodicMaintenance']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'Replaced', 'PeriodicMaintenance']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PressureMaps', 'PeriodicMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['RailTraffic', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'Replaced', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['RailTraffic', 'Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'TestResult', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'TestResult', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'AssetFailure', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'AssetFailure', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'AssetFailure', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TestResult', 'RailTraffic', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'RailTraffic', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'TonnageMaintenance', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'TonnageMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'TonnageMaintenance', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'TonnageMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance', 'TestResult', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance', 'AssetFailure', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'TonnageMaintenance', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['TonnageMaintenance', 'AssetFailure', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'TonnageMaintenance', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'TonnageMaintenance', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'TonnageMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'TonnageMaintenance', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'TonnageMaintenance', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'TonnageMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance', 'RailTraffic', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'PeriodicMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'PeriodicMaintenance', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'PeriodicMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'TestResult', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'AssetFailure', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'PeriodicMaintenance', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'AssetFailure', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'PeriodicMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'PeriodicMaintenance', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'PeriodicMaintenance', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'PeriodicMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'RailTraffic', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'TonnageMaintenance', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance', 'TonnageMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'TonnageMaintenance', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'TonnageMaintenance', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance', 'TonnageMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TestResult', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['AssetFailure', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['TonnageMaintenance', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'TonnageMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'TonnageMaintenance']</t>
   </si>
   <si>
     <t>['PressureMaps', 'TonnageMaintenance', 'TestResult']</t>
   </si>
   <si>
-    <t>['AssetFailure', 'PressureMaps', 'TonnageMaintenance']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'TonnageMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'TonnageMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TonnageMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TonnageMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TonnageMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'TonnageMaintenance']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['PeriodicMaintenance', 'TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['PeriodicMaintenance', 'WeatherMaps', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['PeriodicMaintenance', 'WeatherMaps', 'Replaced']</t>
+    <t>['PressureMaps', 'TonnageMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['TonnageMaintenance', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['TonnageMaintenance', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'TonnageMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'TonnageMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'AssetFailure', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps', 'PeriodicMaintenance']</t>
   </si>
   <si>
     <t>['PressureMaps', 'PeriodicMaintenance', 'TestResult']</t>
   </si>
   <si>
-    <t>['AssetFailure', 'PressureMaps', 'PeriodicMaintenance']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'PeriodicMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'PeriodicMaintenance', 'RailTraffic']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PeriodicMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps', 'PeriodicMaintenance']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PeriodicMaintenance', 'TestResult']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'TonnageMaintenance', 'PeriodicMaintenance']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PeriodicMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PeriodicMaintenance', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'TonnageMaintenance', 'PeriodicMaintenance']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'TonnageMaintenance', 'PeriodicMaintenance']</t>
+    <t>['PressureMaps', 'PeriodicMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps', 'PeriodicMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'RailTraffic', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'AssetFailure', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'PeriodicMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'TonnageMaintenance', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'TonnageMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'PeriodicMaintenance', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'TonnageMaintenance', 'RailTraffic']</t>
   </si>
   <si>
     <t>['AssetFailure', 'TestResult']</t>
   </si>
   <si>
-    <t>['TestResult', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['AssetFailure', 'Replaced']</t>
+    <t>['Replaced', 'TestResult']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'AssetFailure']</t>
   </si>
   <si>
     <t>['WeatherMaps', 'TestResult']</t>
   </si>
   <si>
-    <t>['AssetFailure', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['WeatherMaps', 'Replaced']</t>
+    <t>['WeatherMaps', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'WeatherMaps']</t>
   </si>
   <si>
     <t>['PressureMaps', 'TestResult']</t>
   </si>
   <si>
-    <t>['AssetFailure', 'PressureMaps']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['PressureMaps', 'WeatherMaps']</t>
+    <t>['PressureMaps', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PressureMaps']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PressureMaps']</t>
   </si>
   <si>
     <t>['RailTraffic', 'TestResult']</t>
@@ -1490,52 +1490,52 @@
     <t>['AssetFailure', 'RailTraffic']</t>
   </si>
   <si>
-    <t>['RailTraffic', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'WeatherMaps']</t>
-  </si>
-  <si>
-    <t>['RailTraffic', 'PressureMaps']</t>
+    <t>['Replaced', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PressureMaps', 'RailTraffic']</t>
   </si>
   <si>
     <t>['TonnageMaintenance', 'TestResult']</t>
   </si>
   <si>
-    <t>['AssetFailure', 'TonnageMaintenance']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'WeatherMaps']</t>
+    <t>['TonnageMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'TonnageMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'TonnageMaintenance']</t>
   </si>
   <si>
     <t>['PressureMaps', 'TonnageMaintenance']</t>
   </si>
   <si>
-    <t>['RailTraffic', 'TonnageMaintenance']</t>
+    <t>['TonnageMaintenance', 'RailTraffic']</t>
   </si>
   <si>
     <t>['PeriodicMaintenance', 'TestResult']</t>
   </si>
   <si>
-    <t>['AssetFailure', 'PeriodicMaintenance']</t>
-  </si>
-  <si>
-    <t>['PeriodicMaintenance', 'Replaced']</t>
-  </si>
-  <si>
-    <t>['PeriodicMaintenance', 'WeatherMaps']</t>
+    <t>['PeriodicMaintenance', 'AssetFailure']</t>
+  </si>
+  <si>
+    <t>['Replaced', 'PeriodicMaintenance']</t>
+  </si>
+  <si>
+    <t>['WeatherMaps', 'PeriodicMaintenance']</t>
   </si>
   <si>
     <t>['PressureMaps', 'PeriodicMaintenance']</t>
   </si>
   <si>
-    <t>['RailTraffic', 'PeriodicMaintenance']</t>
-  </si>
-  <si>
-    <t>['TonnageMaintenance', 'PeriodicMaintenance']</t>
+    <t>['PeriodicMaintenance', 'RailTraffic']</t>
+  </si>
+  <si>
+    <t>['PeriodicMaintenance', 'TonnageMaintenance']</t>
   </si>
   <si>
     <t>['TestResult']</t>
@@ -7873,16 +7873,16 @@
         <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E2">
-        <v>0.740503359392524</v>
+        <v>0.8799083338449457</v>
       </c>
       <c r="F2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G2">
-        <v>0.405323253473738</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7899,13 +7899,13 @@
         <v>516</v>
       </c>
       <c r="E3">
-        <v>0.6211343260095965</v>
+        <v>0.9397073624681062</v>
       </c>
       <c r="F3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G3">
-        <v>0.39863019317554</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7919,16 +7919,16 @@
         <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E4">
-        <v>0.7182047703439973</v>
+        <v>0.9146831625243528</v>
       </c>
       <c r="F4" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G4">
-        <v>0.4076551574262591</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7945,13 +7945,13 @@
         <v>518</v>
       </c>
       <c r="E5">
-        <v>0.8705661868186607</v>
+        <v>0.9999991537130255</v>
       </c>
       <c r="F5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G5">
-        <v>0.3915136920487743</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7965,16 +7965,16 @@
         <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E6">
-        <v>0.5704694248692835</v>
+        <v>0.894350213032135</v>
       </c>
       <c r="F6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G6">
-        <v>0.4076551574262591</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7988,16 +7988,16 @@
         <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E7">
-        <v>0.886429903186533</v>
+        <v>0.966764220857021</v>
       </c>
       <c r="F7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G7">
-        <v>0.3731928640017788</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8014,13 +8014,13 @@
         <v>516</v>
       </c>
       <c r="E8">
-        <v>0.347192635660139</v>
+        <v>0.9840147198306817</v>
       </c>
       <c r="F8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G8">
-        <v>0.4304621901592486</v>
+        <v>0.2700089726460001</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8034,16 +8034,16 @@
         <v>268</v>
       </c>
       <c r="D9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E9">
-        <v>0.9751266006148979</v>
+        <v>0.874444579707077</v>
       </c>
       <c r="F9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G9">
-        <v>0.5926855907980001</v>
+        <v>0.3653749235198526</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8057,16 +8057,16 @@
         <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E10">
-        <v>0.7408351718046985</v>
+        <v>0.9095668178602125</v>
       </c>
       <c r="F10" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G10">
-        <v>0.404802931877119</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8080,16 +8080,16 @@
         <v>270</v>
       </c>
       <c r="D11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E11">
-        <v>0.67755435574783</v>
+        <v>0.8958807857852951</v>
       </c>
       <c r="F11" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G11">
-        <v>0.4053232534737378</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8103,16 +8103,16 @@
         <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E12">
-        <v>0.5297932874970842</v>
+        <v>0.9999998461745462</v>
       </c>
       <c r="F12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G12">
-        <v>0.398464043758416</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8129,13 +8129,13 @@
         <v>516</v>
       </c>
       <c r="E13">
-        <v>0.4558663687036703</v>
+        <v>0.9255800748790292</v>
       </c>
       <c r="F13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G13">
-        <v>0.4053232534737379</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8149,16 +8149,16 @@
         <v>273</v>
       </c>
       <c r="D14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E14">
-        <v>0.7636813764229295</v>
+        <v>0.7973134486232617</v>
       </c>
       <c r="F14" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G14">
-        <v>0.3444759195778249</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8172,16 +8172,16 @@
         <v>274</v>
       </c>
       <c r="D15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E15">
-        <v>0.8141355451733563</v>
+        <v>0.9664673604315058</v>
       </c>
       <c r="F15" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G15">
-        <v>0.4274564071653689</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8195,16 +8195,16 @@
         <v>275</v>
       </c>
       <c r="D16" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E16">
-        <v>0.8444563218980907</v>
+        <v>0.3337416961227118</v>
       </c>
       <c r="F16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G16">
-        <v>0.5926855907980001</v>
+        <v>0.4041477293743796</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8218,16 +8218,16 @@
         <v>276</v>
       </c>
       <c r="D17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E17">
-        <v>0.7243274338024719</v>
+        <v>0.9100304125645133</v>
       </c>
       <c r="F17" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G17">
-        <v>0.3986301931755399</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8241,16 +8241,16 @@
         <v>277</v>
       </c>
       <c r="D18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E18">
-        <v>0.6058741125375854</v>
+        <v>0.890305716574288</v>
       </c>
       <c r="F18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G18">
-        <v>0.3961564883411824</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8267,13 +8267,13 @@
         <v>516</v>
       </c>
       <c r="E19">
-        <v>0.6211343260095965</v>
+        <v>0.8798457985821846</v>
       </c>
       <c r="F19" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G19">
-        <v>0.3986301931755399</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8287,16 +8287,16 @@
         <v>279</v>
       </c>
       <c r="D20" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E20">
-        <v>0.9312655156642399</v>
+        <v>0.9653541346976606</v>
       </c>
       <c r="F20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G20">
-        <v>0.2620521814981703</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -8310,16 +8310,16 @@
         <v>280</v>
       </c>
       <c r="D21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E21">
-        <v>0.4388126691299853</v>
+        <v>0.9839509179101188</v>
       </c>
       <c r="F21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G21">
-        <v>0.4188291706963945</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -8333,16 +8333,16 @@
         <v>281</v>
       </c>
       <c r="D22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E22">
-        <v>0.9797544581077952</v>
+        <v>0.8709262572910147</v>
       </c>
       <c r="F22" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G22">
-        <v>0.592685590798</v>
+        <v>0.3653749235198526</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -8359,13 +8359,13 @@
         <v>518</v>
       </c>
       <c r="E23">
-        <v>0.8740161809285625</v>
+        <v>0.9999991456441379</v>
       </c>
       <c r="F23" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G23">
-        <v>0.3915136920487744</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -8379,16 +8379,16 @@
         <v>283</v>
       </c>
       <c r="D24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E24">
-        <v>0.7182047703439972</v>
+        <v>0.9190685814307638</v>
       </c>
       <c r="F24" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G24">
-        <v>0.4076551574262594</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8402,16 +8402,16 @@
         <v>284</v>
       </c>
       <c r="D25" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E25">
-        <v>0.7574803813084121</v>
+        <v>0.7978028500764512</v>
       </c>
       <c r="F25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G25">
-        <v>0.3731928640017788</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -8425,16 +8425,16 @@
         <v>285</v>
       </c>
       <c r="D26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E26">
-        <v>0.7947473816008077</v>
+        <v>0.9768371840142738</v>
       </c>
       <c r="F26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G26">
-        <v>0.4304621901592484</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -8448,16 +8448,16 @@
         <v>286</v>
       </c>
       <c r="D27" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E27">
-        <v>0.8520018068444598</v>
+        <v>0.8387161003122936</v>
       </c>
       <c r="F27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G27">
-        <v>0.5926855907980001</v>
+        <v>0.3974419780229255</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -8474,13 +8474,13 @@
         <v>518</v>
       </c>
       <c r="E28">
-        <v>0.8705661868186608</v>
+        <v>0.9999993345877549</v>
       </c>
       <c r="F28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G28">
-        <v>0.3915136920487745</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -8494,16 +8494,16 @@
         <v>288</v>
       </c>
       <c r="D29" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E29">
-        <v>0.8673876719211691</v>
+        <v>0.9999985452682122</v>
       </c>
       <c r="F29" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G29">
-        <v>0.174413851827959</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -8520,13 +8520,13 @@
         <v>518</v>
       </c>
       <c r="E30">
-        <v>0.8639013787490344</v>
+        <v>0.9999991798669809</v>
       </c>
       <c r="F30" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G30">
-        <v>0.4096561264809019</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -8540,16 +8540,16 @@
         <v>290</v>
       </c>
       <c r="D31" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E31">
-        <v>0.9614074848701696</v>
+        <v>0.999998898749204</v>
       </c>
       <c r="F31" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G31">
-        <v>0.5926855907980001</v>
+        <v>0.3921557055792211</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -8563,16 +8563,16 @@
         <v>291</v>
       </c>
       <c r="D32" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E32">
-        <v>0.886429903186533</v>
+        <v>0.7717575257524409</v>
       </c>
       <c r="F32" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G32">
-        <v>0.3731928640017787</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -8589,13 +8589,13 @@
         <v>516</v>
       </c>
       <c r="E33">
-        <v>0.347192635660139</v>
+        <v>0.9694741589436243</v>
       </c>
       <c r="F33" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G33">
-        <v>0.4304621901592486</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8609,16 +8609,16 @@
         <v>293</v>
       </c>
       <c r="D34" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E34">
-        <v>0.9751266006148979</v>
+        <v>0.8266123040884643</v>
       </c>
       <c r="F34" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G34">
-        <v>0.5926855907980001</v>
+        <v>0.4238202137223281</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -8632,16 +8632,16 @@
         <v>294</v>
       </c>
       <c r="D35" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E35">
-        <v>0.7576085509077189</v>
+        <v>0.9833051144792537</v>
       </c>
       <c r="F35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G35">
-        <v>0.3860409028273215</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -8655,16 +8655,16 @@
         <v>295</v>
       </c>
       <c r="D36" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E36">
-        <v>0.9956783351493689</v>
+        <v>0.8999747365286153</v>
       </c>
       <c r="F36" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G36">
-        <v>0.5926855907980001</v>
+        <v>0.4509913011267838</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -8678,16 +8678,16 @@
         <v>296</v>
       </c>
       <c r="D37" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E37">
-        <v>0.9401163096306122</v>
+        <v>0.9009140447661917</v>
       </c>
       <c r="F37" t="s">
         <v>516</v>
       </c>
       <c r="G37">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -8701,16 +8701,16 @@
         <v>297</v>
       </c>
       <c r="D38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E38">
-        <v>0.6779316513304833</v>
+        <v>0.9172413887561588</v>
       </c>
       <c r="F38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G38">
-        <v>0.404802931877119</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -8724,16 +8724,16 @@
         <v>298</v>
       </c>
       <c r="D39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E39">
-        <v>0.5235924433917546</v>
+        <v>0.8648464640430833</v>
       </c>
       <c r="F39" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G39">
-        <v>0.4057732796758247</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -8750,13 +8750,13 @@
         <v>516</v>
       </c>
       <c r="E40">
-        <v>0.4580256785254559</v>
+        <v>0.9325919294079982</v>
       </c>
       <c r="F40" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G40">
-        <v>0.4048029318771189</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -8770,16 +8770,16 @@
         <v>300</v>
       </c>
       <c r="D41" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E41">
-        <v>0.7606342012908939</v>
+        <v>0.8139665215079994</v>
       </c>
       <c r="F41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G41">
-        <v>0.3380682601386208</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -8793,16 +8793,16 @@
         <v>301</v>
       </c>
       <c r="D42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E42">
-        <v>0.8147533687722531</v>
+        <v>0.9753476814710365</v>
       </c>
       <c r="F42" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G42">
-        <v>0.4267857218205564</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -8816,16 +8816,16 @@
         <v>302</v>
       </c>
       <c r="D43" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E43">
-        <v>0.8453546465842613</v>
+        <v>0.8525575314646193</v>
       </c>
       <c r="F43" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G43">
-        <v>0.5926855907980001</v>
+        <v>0.4041477293743795</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -8839,16 +8839,16 @@
         <v>303</v>
       </c>
       <c r="D44" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E44">
-        <v>0.8874769684191678</v>
+        <v>0.9999998272623407</v>
       </c>
       <c r="F44" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G44">
-        <v>0.398464043758416</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -8862,16 +8862,16 @@
         <v>304</v>
       </c>
       <c r="D45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E45">
-        <v>0.6775543557478301</v>
+        <v>0.8303339058688565</v>
       </c>
       <c r="F45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G45">
-        <v>0.4053232534737378</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -8885,16 +8885,16 @@
         <v>305</v>
       </c>
       <c r="D46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E46">
-        <v>0.7041082540757603</v>
+        <v>0.8450885891950803</v>
       </c>
       <c r="F46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G46">
-        <v>0.3444759195778248</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -8908,16 +8908,16 @@
         <v>306</v>
       </c>
       <c r="D47" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E47">
-        <v>0.7633398118252247</v>
+        <v>0.9713027431461907</v>
       </c>
       <c r="F47" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G47">
-        <v>0.4274564071653688</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -8931,16 +8931,16 @@
         <v>307</v>
       </c>
       <c r="D48" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E48">
-        <v>0.875105491562204</v>
+        <v>0.394044528291799</v>
       </c>
       <c r="F48" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G48">
-        <v>0.592685590798</v>
+        <v>0.3951672173799859</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -8954,16 +8954,16 @@
         <v>308</v>
       </c>
       <c r="D49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E49">
-        <v>0.529793287497084</v>
+        <v>0.9999998419473775</v>
       </c>
       <c r="F49" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G49">
-        <v>0.3984640437584159</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -8977,16 +8977,16 @@
         <v>309</v>
       </c>
       <c r="D50" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E50">
-        <v>0.5789036926785349</v>
+        <v>0.9999997158719979</v>
       </c>
       <c r="F50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G50">
-        <v>0.2600060836850668</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -9000,16 +9000,16 @@
         <v>310</v>
       </c>
       <c r="D51" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E51">
-        <v>0.6412616127205656</v>
+        <v>0.9999998527827246</v>
       </c>
       <c r="F51" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G51">
-        <v>0.4186150070333094</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9023,16 +9023,16 @@
         <v>311</v>
       </c>
       <c r="D52" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E52">
-        <v>0.9265073617864578</v>
+        <v>0.9999997844739829</v>
       </c>
       <c r="F52" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G52">
-        <v>0.5926855907980002</v>
+        <v>0.4000778346647599</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -9049,13 +9049,13 @@
         <v>516</v>
       </c>
       <c r="E53">
-        <v>0.6974371314003686</v>
+        <v>0.9174980205559604</v>
       </c>
       <c r="F53" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G53">
-        <v>0.3444759195778248</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -9069,16 +9069,16 @@
         <v>313</v>
       </c>
       <c r="D54" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E54">
-        <v>0.3046025174954018</v>
+        <v>0.979969449796667</v>
       </c>
       <c r="F54" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G54">
-        <v>0.4274564071653686</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -9092,16 +9092,16 @@
         <v>314</v>
       </c>
       <c r="D55" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E55">
-        <v>0.9611344697478741</v>
+        <v>0.6814856495928022</v>
       </c>
       <c r="F55" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G55">
-        <v>0.592685590798</v>
+        <v>0.3756154907284369</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9115,16 +9115,16 @@
         <v>315</v>
       </c>
       <c r="D56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E56">
-        <v>0.8705424077824515</v>
+        <v>0.9392978226184748</v>
       </c>
       <c r="F56" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G56">
-        <v>0.3490252688461752</v>
+        <v>0.2700089726460001</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9138,16 +9138,16 @@
         <v>316</v>
       </c>
       <c r="D57" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E57">
-        <v>0.914649718025448</v>
+        <v>0.4259223532396047</v>
       </c>
       <c r="F57" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G57">
-        <v>0.5926855907980001</v>
+        <v>0.6017949632615133</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -9164,13 +9164,13 @@
         <v>516</v>
       </c>
       <c r="E58">
-        <v>0.6849463286781716</v>
+        <v>0.5957938210985427</v>
       </c>
       <c r="F58" t="s">
         <v>520</v>
       </c>
       <c r="G58">
-        <v>0.2510454092020001</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9184,16 +9184,16 @@
         <v>318</v>
       </c>
       <c r="D59" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E59">
-        <v>0.7990320043133384</v>
+        <v>0.8940454841156964</v>
       </c>
       <c r="F59" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G59">
-        <v>0.3961564883411824</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -9207,16 +9207,16 @@
         <v>319</v>
       </c>
       <c r="D60" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E60">
-        <v>0.7243274338024719</v>
+        <v>0.9152511889984296</v>
       </c>
       <c r="F60" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G60">
-        <v>0.3986301931755398</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -9230,16 +9230,16 @@
         <v>320</v>
       </c>
       <c r="D61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E61">
-        <v>0.6941773536354237</v>
+        <v>0.7707037710204875</v>
       </c>
       <c r="F61" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G61">
-        <v>0.2620521814981703</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9253,16 +9253,16 @@
         <v>321</v>
       </c>
       <c r="D62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E62">
-        <v>0.8063879899293068</v>
+        <v>0.9754831480890895</v>
       </c>
       <c r="F62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G62">
-        <v>0.4188291706963945</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -9276,16 +9276,16 @@
         <v>322</v>
       </c>
       <c r="D63" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E63">
-        <v>0.8661068673200129</v>
+        <v>0.7234257754388653</v>
       </c>
       <c r="F63" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G63">
-        <v>0.5926855907980001</v>
+        <v>0.3974419780229255</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -9299,16 +9299,16 @@
         <v>323</v>
       </c>
       <c r="D64" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E64">
-        <v>0.6058741125375853</v>
+        <v>0.7866033751285263</v>
       </c>
       <c r="F64" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G64">
-        <v>0.3961564883411823</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -9325,13 +9325,13 @@
         <v>516</v>
       </c>
       <c r="E65">
-        <v>0.7708190829977667</v>
+        <v>0.8880367784369277</v>
       </c>
       <c r="F65" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G65">
-        <v>0.2315889867457846</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -9345,16 +9345,16 @@
         <v>325</v>
       </c>
       <c r="D66" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E66">
-        <v>0.591967900293854</v>
+        <v>0.9696292408666293</v>
       </c>
       <c r="F66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G66">
-        <v>0.4156406088712167</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -9368,16 +9368,16 @@
         <v>326</v>
       </c>
       <c r="D67" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E67">
-        <v>0.9584619264653469</v>
+        <v>0.4182443705438865</v>
       </c>
       <c r="F67" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G67">
-        <v>0.592685590798</v>
+        <v>0.3921557055792211</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -9391,16 +9391,16 @@
         <v>327</v>
       </c>
       <c r="D68" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E68">
-        <v>0.9312655156642395</v>
+        <v>0.629733683130668</v>
       </c>
       <c r="F68" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G68">
-        <v>0.2620521814981703</v>
+        <v>0.2070100273539999</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -9414,16 +9414,16 @@
         <v>328</v>
       </c>
       <c r="D69" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E69">
-        <v>0.4388126691299852</v>
+        <v>0.9664481802877576</v>
       </c>
       <c r="F69" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G69">
-        <v>0.4188291706963944</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -9437,16 +9437,16 @@
         <v>329</v>
       </c>
       <c r="D70" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E70">
-        <v>0.979754458107795</v>
+        <v>0.7057057603216677</v>
       </c>
       <c r="F70" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G70">
-        <v>0.592685590798</v>
+        <v>0.4238202137223281</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -9460,16 +9460,16 @@
         <v>330</v>
       </c>
       <c r="D71" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E71">
-        <v>0.8443719776377688</v>
+        <v>0.980772430165313</v>
       </c>
       <c r="F71" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G71">
-        <v>0.2427825267538296</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -9483,16 +9483,16 @@
         <v>331</v>
       </c>
       <c r="D72" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E72">
-        <v>0.997505812943018</v>
+        <v>0.8319882273000945</v>
       </c>
       <c r="F72" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G72">
-        <v>0.5926855907980001</v>
+        <v>0.4509913011267837</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -9506,16 +9506,16 @@
         <v>332</v>
       </c>
       <c r="D73" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E73">
-        <v>0.9509302710109431</v>
+        <v>0.9014647598833768</v>
       </c>
       <c r="F73" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G73">
-        <v>0.2510454092020001</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -9532,13 +9532,13 @@
         <v>518</v>
       </c>
       <c r="E74">
-        <v>0.8740161809285627</v>
+        <v>0.9999991810993296</v>
       </c>
       <c r="F74" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G74">
-        <v>0.3915136920487745</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -9555,13 +9555,13 @@
         <v>518</v>
       </c>
       <c r="E75">
-        <v>0.7826668052988606</v>
+        <v>0.999998553032061</v>
       </c>
       <c r="F75" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G75">
-        <v>0.174413851827959</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -9578,13 +9578,13 @@
         <v>518</v>
       </c>
       <c r="E76">
-        <v>0.8718791498111079</v>
+        <v>0.9999991699592847</v>
       </c>
       <c r="F76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G76">
-        <v>0.409656126480902</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -9601,13 +9601,13 @@
         <v>518</v>
       </c>
       <c r="E77">
-        <v>0.8919086160910195</v>
+        <v>0.9999989063062593</v>
       </c>
       <c r="F77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G77">
-        <v>0.5926855907980001</v>
+        <v>0.3903792718297669</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -9621,16 +9621,16 @@
         <v>337</v>
       </c>
       <c r="D78" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E78">
-        <v>0.7574803813084121</v>
+        <v>0.8005525040089451</v>
       </c>
       <c r="F78" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G78">
-        <v>0.3731928640017787</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -9644,16 +9644,16 @@
         <v>338</v>
       </c>
       <c r="D79" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E79">
-        <v>0.794747381600808</v>
+        <v>0.9781042666122683</v>
       </c>
       <c r="F79" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G79">
-        <v>0.4304621901592487</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -9667,16 +9667,16 @@
         <v>339</v>
       </c>
       <c r="D80" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E80">
-        <v>0.85200180684446</v>
+        <v>0.8413116047235871</v>
       </c>
       <c r="F80" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G80">
-        <v>0.5926855907980002</v>
+        <v>0.39229769342709</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -9690,16 +9690,16 @@
         <v>340</v>
       </c>
       <c r="D81" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E81">
-        <v>0.8673999896315158</v>
+        <v>0.9214226639588864</v>
       </c>
       <c r="F81" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G81">
-        <v>0.3860409028273215</v>
+        <v>0.2700089726460001</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -9713,16 +9713,16 @@
         <v>341</v>
       </c>
       <c r="D82" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E82">
-        <v>0.9047594044312149</v>
+        <v>0.8849423542499891</v>
       </c>
       <c r="F82" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G82">
-        <v>0.5926855907980001</v>
+        <v>0.5757134909801839</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -9736,16 +9736,16 @@
         <v>342</v>
       </c>
       <c r="D83" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E83">
-        <v>0.6974574589102099</v>
+        <v>0.8609933372865559</v>
       </c>
       <c r="F83" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G83">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -9759,16 +9759,16 @@
         <v>343</v>
       </c>
       <c r="D84" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E84">
-        <v>0.8673876719211692</v>
+        <v>0.9999981852010235</v>
       </c>
       <c r="F84" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G84">
-        <v>0.174413851827959</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -9785,13 +9785,13 @@
         <v>518</v>
       </c>
       <c r="E85">
-        <v>0.8639013787490346</v>
+        <v>0.999999406709737</v>
       </c>
       <c r="F85" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G85">
-        <v>0.4096561264809022</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -9805,16 +9805,16 @@
         <v>345</v>
       </c>
       <c r="D86" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E86">
-        <v>0.9614074848701696</v>
+        <v>0.9999987582902785</v>
       </c>
       <c r="F86" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G86">
-        <v>0.5926855907980001</v>
+        <v>0.4283880492783305</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -9831,13 +9831,13 @@
         <v>518</v>
       </c>
       <c r="E87">
-        <v>0.790566560692011</v>
+        <v>0.9999983505320361</v>
       </c>
       <c r="F87" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G87">
-        <v>0.129818268234541</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -9851,16 +9851,16 @@
         <v>347</v>
       </c>
       <c r="D88" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E88">
-        <v>0.9948472451057047</v>
+        <v>0.9999992552523795</v>
       </c>
       <c r="F88" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G88">
-        <v>0.5926855907980002</v>
+        <v>0.5551529659941018</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -9874,16 +9874,16 @@
         <v>348</v>
       </c>
       <c r="D89" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E89">
-        <v>0.908891202723437</v>
+        <v>0.9999990527519216</v>
       </c>
       <c r="F89" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G89">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -9900,13 +9900,13 @@
         <v>516</v>
       </c>
       <c r="E90">
-        <v>0.7576085509077189</v>
+        <v>0.7509900305806538</v>
       </c>
       <c r="F90" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G90">
-        <v>0.3860409028273215</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -9920,16 +9920,16 @@
         <v>350</v>
       </c>
       <c r="D91" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E91">
-        <v>0.9956783351493689</v>
+        <v>0.8769312937523035</v>
       </c>
       <c r="F91" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G91">
-        <v>0.592685590798</v>
+        <v>0.6783094846528608</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -9943,16 +9943,16 @@
         <v>351</v>
       </c>
       <c r="D92" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E92">
-        <v>0.9401163096306122</v>
+        <v>0.8636460744529038</v>
       </c>
       <c r="F92" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G92">
-        <v>0.2510454092020001</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -9966,16 +9966,16 @@
         <v>352</v>
       </c>
       <c r="D93" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E93">
-        <v>0.9892773306687686</v>
+        <v>0.908917073537406</v>
       </c>
       <c r="F93" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G93">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -9989,16 +9989,16 @@
         <v>353</v>
       </c>
       <c r="D94" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E94">
-        <v>0.8849689076497848</v>
+        <v>0.9156484979403302</v>
       </c>
       <c r="F94" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G94">
-        <v>0.4057732796758245</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -10012,16 +10012,16 @@
         <v>354</v>
       </c>
       <c r="D95" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E95">
-        <v>0.6779316513304832</v>
+        <v>0.9081231277950047</v>
       </c>
       <c r="F95" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G95">
-        <v>0.404802931877119</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -10035,16 +10035,16 @@
         <v>355</v>
       </c>
       <c r="D96" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E96">
-        <v>0.7005940827312478</v>
+        <v>0.8191373681250788</v>
       </c>
       <c r="F96" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G96">
-        <v>0.3380682601386208</v>
+        <v>0.2070100273539999</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -10058,16 +10058,16 @@
         <v>356</v>
       </c>
       <c r="D97" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E97">
-        <v>0.7640775540367089</v>
+        <v>0.9775774078563423</v>
       </c>
       <c r="F97" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G97">
-        <v>0.4267857218205564</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -10081,16 +10081,16 @@
         <v>357</v>
       </c>
       <c r="D98" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E98">
-        <v>0.8758252131656427</v>
+        <v>0.856577489940025</v>
       </c>
       <c r="F98" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G98">
-        <v>0.5926855907980001</v>
+        <v>0.395167217379986</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -10104,16 +10104,16 @@
         <v>358</v>
       </c>
       <c r="D99" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E99">
-        <v>0.5235924433917545</v>
+        <v>0.8772565234649634</v>
       </c>
       <c r="F99" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G99">
-        <v>0.4057732796758245</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -10127,16 +10127,16 @@
         <v>359</v>
       </c>
       <c r="D100" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E100">
-        <v>0.558376025439174</v>
+        <v>0.869315035678062</v>
       </c>
       <c r="F100" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G100">
-        <v>0.3500179048815797</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -10150,16 +10150,16 @@
         <v>360</v>
       </c>
       <c r="D101" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E101">
-        <v>0.6273672311632862</v>
+        <v>0.9617902768833285</v>
       </c>
       <c r="F101" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G101">
-        <v>0.428036482988633</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -10173,16 +10173,16 @@
         <v>361</v>
       </c>
       <c r="D102" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E102">
-        <v>0.9197508697448848</v>
+        <v>0.3093015831118655</v>
       </c>
       <c r="F102" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G102">
-        <v>0.5926855907980001</v>
+        <v>0.40007783466476</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -10196,16 +10196,16 @@
         <v>362</v>
       </c>
       <c r="D103" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E103">
-        <v>0.7038777114223099</v>
+        <v>0.9117875627797619</v>
       </c>
       <c r="F103" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G103">
-        <v>0.3380682601386209</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -10219,16 +10219,16 @@
         <v>363</v>
       </c>
       <c r="D104" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E104">
-        <v>0.3054691649739159</v>
+        <v>0.9819566297683527</v>
       </c>
       <c r="F104" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G104">
-        <v>0.4267857218205563</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -10242,16 +10242,16 @@
         <v>364</v>
       </c>
       <c r="D105" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E105">
-        <v>0.9614582233281281</v>
+        <v>0.8661443365284355</v>
       </c>
       <c r="F105" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G105">
-        <v>0.5926855907980001</v>
+        <v>0.3756154907284368</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -10265,16 +10265,16 @@
         <v>365</v>
       </c>
       <c r="D106" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E106">
-        <v>0.8684163422481578</v>
+        <v>0.8985535446921816</v>
       </c>
       <c r="F106" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G106">
-        <v>0.3407659090418793</v>
+        <v>0.2700089726460001</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -10288,16 +10288,16 @@
         <v>366</v>
       </c>
       <c r="D107" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E107">
-        <v>0.9182892163835616</v>
+        <v>0.8954447747476855</v>
       </c>
       <c r="F107" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G107">
-        <v>0.5926855907980001</v>
+        <v>0.6017949632615134</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -10311,16 +10311,16 @@
         <v>367</v>
       </c>
       <c r="D108" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E108">
-        <v>0.6864237994679631</v>
+        <v>0.8764421858320474</v>
       </c>
       <c r="F108" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G108">
-        <v>0.2510454092020001</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -10334,16 +10334,16 @@
         <v>368</v>
       </c>
       <c r="D109" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E109">
-        <v>0.8874769684191679</v>
+        <v>0.9999998576810873</v>
       </c>
       <c r="F109" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G109">
-        <v>0.3984640437584159</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -10357,16 +10357,16 @@
         <v>369</v>
       </c>
       <c r="D110" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E110">
-        <v>0.8711471158317395</v>
+        <v>0.9999997335222854</v>
       </c>
       <c r="F110" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G110">
-        <v>0.2600060836850668</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -10380,16 +10380,16 @@
         <v>370</v>
       </c>
       <c r="D111" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E111">
-        <v>0.9259962390986165</v>
+        <v>0.9999998296056636</v>
       </c>
       <c r="F111" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G111">
-        <v>0.4186150070333095</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -10403,16 +10403,16 @@
         <v>371</v>
       </c>
       <c r="D112" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E112">
-        <v>0.7202413085153132</v>
+        <v>0.9999998025872431</v>
       </c>
       <c r="F112" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G112">
-        <v>0.5926855907980002</v>
+        <v>0.3779474789608218</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -10426,16 +10426,16 @@
         <v>372</v>
       </c>
       <c r="D113" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E113">
-        <v>0.7041082540757604</v>
+        <v>0.5849958678948511</v>
       </c>
       <c r="F113" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G113">
-        <v>0.3444759195778248</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -10449,16 +10449,16 @@
         <v>373</v>
       </c>
       <c r="D114" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E114">
-        <v>0.7633398118252246</v>
+        <v>0.9506196474850122</v>
       </c>
       <c r="F114" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G114">
-        <v>0.4274564071653688</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -10472,16 +10472,16 @@
         <v>374</v>
       </c>
       <c r="D115" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E115">
-        <v>0.8751054915622041</v>
+        <v>0.3178787850033193</v>
       </c>
       <c r="F115" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G115">
-        <v>0.5926855907980001</v>
+        <v>0.4269813893637527</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -10495,16 +10495,16 @@
         <v>375</v>
       </c>
       <c r="D116" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E116">
-        <v>0.8319809124113378</v>
+        <v>0.9554748352755585</v>
       </c>
       <c r="F116" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G116">
-        <v>0.3490252688461752</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -10518,16 +10518,16 @@
         <v>376</v>
       </c>
       <c r="D117" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E117">
-        <v>0.9316176816174246</v>
+        <v>0.4334508888619348</v>
       </c>
       <c r="F117" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G117">
-        <v>0.5926855907980001</v>
+        <v>0.5668659952193074</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -10544,13 +10544,13 @@
         <v>516</v>
       </c>
       <c r="E118">
-        <v>0.7372465119853655</v>
+        <v>0.6338288218718025</v>
       </c>
       <c r="F118" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G118">
-        <v>0.2510454092020001</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -10564,16 +10564,16 @@
         <v>378</v>
       </c>
       <c r="D119" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E119">
-        <v>0.5789036926785349</v>
+        <v>0.9999997207057801</v>
       </c>
       <c r="F119" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G119">
-        <v>0.2600060836850668</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -10587,16 +10587,16 @@
         <v>379</v>
       </c>
       <c r="D120" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E120">
-        <v>0.6412616127205657</v>
+        <v>0.9999998475578309</v>
       </c>
       <c r="F120" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G120">
-        <v>0.4186150070333094</v>
+        <v>0.2700089726459999</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -10610,16 +10610,16 @@
         <v>380</v>
       </c>
       <c r="D121" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E121">
-        <v>0.9265073617864577</v>
+        <v>0.9999997881896114</v>
       </c>
       <c r="F121" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G121">
-        <v>0.5926855907980001</v>
+        <v>0.3953293862417653</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -10633,16 +10633,16 @@
         <v>381</v>
       </c>
       <c r="D122" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E122">
-        <v>0.6570601862405117</v>
+        <v>0.9999996676892809</v>
       </c>
       <c r="F122" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G122">
-        <v>0.2401451428239332</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -10656,16 +10656,16 @@
         <v>382</v>
       </c>
       <c r="D123" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E123">
-        <v>0.9759499984000556</v>
+        <v>0.9999998543398281</v>
       </c>
       <c r="F123" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G123">
-        <v>0.5926855907980001</v>
+        <v>0.585965440141206</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -10679,16 +10679,16 @@
         <v>383</v>
       </c>
       <c r="D124" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E124">
-        <v>0.8346665265493896</v>
+        <v>0.9999998211637651</v>
       </c>
       <c r="F124" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G124">
-        <v>0.2510454092020001</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -10705,13 +10705,13 @@
         <v>516</v>
       </c>
       <c r="E125">
-        <v>0.4799992603454919</v>
+        <v>0.9776514982712926</v>
       </c>
       <c r="F125" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G125">
-        <v>0.3490252688461752</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -10725,16 +10725,16 @@
         <v>385</v>
       </c>
       <c r="D126" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E126">
-        <v>0.9855160606159115</v>
+        <v>0.6107440971118585</v>
       </c>
       <c r="F126" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G126">
-        <v>0.5926855907980001</v>
+        <v>0.4908211510268781</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -10748,16 +10748,16 @@
         <v>386</v>
       </c>
       <c r="D127" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E127">
-        <v>0.9082821140226842</v>
+        <v>0.7675946139246046</v>
       </c>
       <c r="F127" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G127">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -10774,13 +10774,13 @@
         <v>516</v>
       </c>
       <c r="E128">
-        <v>0.8110133989181803</v>
+        <v>0.4417640912816595</v>
       </c>
       <c r="F128" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G128">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -10794,16 +10794,16 @@
         <v>388</v>
       </c>
       <c r="D129" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E129">
-        <v>0.7990320043133383</v>
+        <v>0.8771393055026098</v>
       </c>
       <c r="F129" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G129">
-        <v>0.3961564883411824</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -10817,16 +10817,16 @@
         <v>389</v>
       </c>
       <c r="D130" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E130">
-        <v>0.752359326740212</v>
+        <v>0.8945582480641184</v>
       </c>
       <c r="F130" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G130">
-        <v>0.2315889867457846</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -10840,16 +10840,16 @@
         <v>390</v>
       </c>
       <c r="D131" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E131">
-        <v>0.8645823525739057</v>
+        <v>0.9707534978921001</v>
       </c>
       <c r="F131" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G131">
-        <v>0.4156406088712166</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -10863,16 +10863,16 @@
         <v>391</v>
       </c>
       <c r="D132" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E132">
-        <v>0.8264719570465052</v>
+        <v>0.4425548673723682</v>
       </c>
       <c r="F132" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G132">
-        <v>0.5926855907980001</v>
+        <v>0.3903792718297667</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -10886,16 +10886,16 @@
         <v>392</v>
       </c>
       <c r="D133" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E133">
-        <v>0.6941773536354237</v>
+        <v>0.8014164673154187</v>
       </c>
       <c r="F133" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G133">
-        <v>0.2620521814981703</v>
+        <v>0.2070100273539999</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -10909,16 +10909,16 @@
         <v>393</v>
       </c>
       <c r="D134" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E134">
-        <v>0.8063879899293068</v>
+        <v>0.977001803124217</v>
       </c>
       <c r="F134" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G134">
-        <v>0.4188291706963944</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -10932,16 +10932,16 @@
         <v>394</v>
       </c>
       <c r="D135" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E135">
-        <v>0.866106867320013</v>
+        <v>0.7272733162324411</v>
       </c>
       <c r="F135" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G135">
-        <v>0.5926855907980001</v>
+        <v>0.39229769342709</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -10955,16 +10955,16 @@
         <v>395</v>
       </c>
       <c r="D136" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E136">
-        <v>0.8185656790226055</v>
+        <v>0.9296846415771869</v>
       </c>
       <c r="F136" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G136">
-        <v>0.2427825267538297</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -10978,16 +10978,16 @@
         <v>396</v>
       </c>
       <c r="D137" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E137">
-        <v>0.9568551890247796</v>
+        <v>0.7946036405073419</v>
       </c>
       <c r="F137" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G137">
-        <v>0.5926855907980001</v>
+        <v>0.5757134909801838</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -11001,16 +11001,16 @@
         <v>397</v>
       </c>
       <c r="D138" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E138">
-        <v>0.7214765018330076</v>
+        <v>0.7570139259387633</v>
       </c>
       <c r="F138" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G138">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -11027,13 +11027,13 @@
         <v>516</v>
       </c>
       <c r="E139">
-        <v>0.7708190829977667</v>
+        <v>0.6427412030691656</v>
       </c>
       <c r="F139" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G139">
-        <v>0.2315889867457846</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -11047,16 +11047,16 @@
         <v>399</v>
       </c>
       <c r="D140" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E140">
-        <v>0.591967900293854</v>
+        <v>0.9354831965482729</v>
       </c>
       <c r="F140" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G140">
-        <v>0.4156406088712166</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -11073,13 +11073,13 @@
         <v>516</v>
       </c>
       <c r="E141">
-        <v>0.958461926465347</v>
+        <v>0.1586126538441655</v>
       </c>
       <c r="F141" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G141">
-        <v>0.5926855907980001</v>
+        <v>0.4283880492783305</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -11096,13 +11096,13 @@
         <v>516</v>
       </c>
       <c r="E142">
-        <v>0.5738980207705365</v>
+        <v>0.9689438126983466</v>
       </c>
       <c r="F142" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G142">
-        <v>0.2035160069527153</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -11116,16 +11116,16 @@
         <v>402</v>
       </c>
       <c r="D143" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E143">
-        <v>0.9900279174506436</v>
+        <v>0.3404954942898363</v>
       </c>
       <c r="F143" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G143">
-        <v>0.5926855907980001</v>
+        <v>0.5551529659941018</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -11142,13 +11142,13 @@
         <v>516</v>
       </c>
       <c r="E144">
-        <v>0.902344503622767</v>
+        <v>0.6201711727220744</v>
       </c>
       <c r="F144" t="s">
         <v>516</v>
       </c>
       <c r="G144">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -11165,13 +11165,13 @@
         <v>516</v>
       </c>
       <c r="E145">
-        <v>0.8443719776377685</v>
+        <v>0.7884679030204043</v>
       </c>
       <c r="F145" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G145">
-        <v>0.2427825267538297</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -11185,16 +11185,16 @@
         <v>405</v>
       </c>
       <c r="D146" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E146">
-        <v>0.9975058129430179</v>
+        <v>0.781853150019687</v>
       </c>
       <c r="F146" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G146">
-        <v>0.5926855907980001</v>
+        <v>0.6783094846528608</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -11208,16 +11208,16 @@
         <v>406</v>
       </c>
       <c r="D147" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E147">
-        <v>0.9509302710109431</v>
+        <v>0.7611003753057377</v>
       </c>
       <c r="F147" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G147">
-        <v>0.2510454092020001</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -11231,16 +11231,16 @@
         <v>407</v>
       </c>
       <c r="D148" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E148">
-        <v>0.9937946956092694</v>
+        <v>0.90906836124483</v>
       </c>
       <c r="F148" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G148">
-        <v>0.2510454092019999</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -11257,13 +11257,13 @@
         <v>518</v>
       </c>
       <c r="E149">
-        <v>0.7826668052988607</v>
+        <v>0.9999985160882294</v>
       </c>
       <c r="F149" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G149">
-        <v>0.174413851827959</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -11280,13 +11280,13 @@
         <v>518</v>
       </c>
       <c r="E150">
-        <v>0.8718791498111078</v>
+        <v>0.9999992136269332</v>
       </c>
       <c r="F150" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G150">
-        <v>0.4096561264809022</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -11303,13 +11303,13 @@
         <v>518</v>
       </c>
       <c r="E151">
-        <v>0.8919086160910195</v>
+        <v>0.9999988740549276</v>
       </c>
       <c r="F151" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G151">
-        <v>0.5926855907980001</v>
+        <v>0.3980750131842618</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -11323,16 +11323,16 @@
         <v>411</v>
       </c>
       <c r="D152" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E152">
-        <v>0.7966327248524169</v>
+        <v>0.9999983683683474</v>
       </c>
       <c r="F152" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G152">
-        <v>0.129818268234541</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -11346,16 +11346,16 @@
         <v>412</v>
       </c>
       <c r="D153" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E153">
-        <v>0.981060349151076</v>
+        <v>0.9999992604630726</v>
       </c>
       <c r="F153" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G153">
-        <v>0.5926855907980001</v>
+        <v>0.5482436719914299</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -11372,13 +11372,13 @@
         <v>518</v>
       </c>
       <c r="E154">
-        <v>0.8876159407553024</v>
+        <v>0.9999990513717006</v>
       </c>
       <c r="F154" t="s">
         <v>516</v>
       </c>
       <c r="G154">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -11392,16 +11392,16 @@
         <v>414</v>
       </c>
       <c r="D155" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E155">
-        <v>0.8673999896315155</v>
+        <v>0.9338382356245136</v>
       </c>
       <c r="F155" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G155">
-        <v>0.3860409028273214</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -11415,16 +11415,16 @@
         <v>415</v>
       </c>
       <c r="D156" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E156">
-        <v>0.9047594044312149</v>
+        <v>0.8868709781539877</v>
       </c>
       <c r="F156" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G156">
-        <v>0.5926855907980001</v>
+        <v>0.5557052161334802</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -11438,16 +11438,16 @@
         <v>416</v>
       </c>
       <c r="D157" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E157">
-        <v>0.69745745891021</v>
+        <v>0.8604848563056019</v>
       </c>
       <c r="F157" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G157">
-        <v>0.2510454092020001</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -11461,16 +11461,16 @@
         <v>417</v>
       </c>
       <c r="D158" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E158">
-        <v>0.7918468378650787</v>
+        <v>0.8506536423332193</v>
       </c>
       <c r="F158" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G158">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -11487,13 +11487,13 @@
         <v>518</v>
       </c>
       <c r="E159">
-        <v>0.7905665606920108</v>
+        <v>0.9999967203744842</v>
       </c>
       <c r="F159" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G159">
-        <v>0.129818268234541</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -11507,16 +11507,16 @@
         <v>419</v>
       </c>
       <c r="D160" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E160">
-        <v>0.9948472451057045</v>
+        <v>0.9999991715457189</v>
       </c>
       <c r="F160" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G160">
-        <v>0.5926855907980001</v>
+        <v>0.6960757080326935</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -11530,16 +11530,16 @@
         <v>420</v>
       </c>
       <c r="D161" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E161">
-        <v>0.908891202723437</v>
+        <v>0.9999990813687595</v>
       </c>
       <c r="F161" t="s">
         <v>516</v>
       </c>
       <c r="G161">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -11553,16 +11553,16 @@
         <v>421</v>
       </c>
       <c r="D162" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E162">
-        <v>0.9872310635793358</v>
+        <v>0.999998973146816</v>
       </c>
       <c r="F162" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G162">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -11576,16 +11576,16 @@
         <v>422</v>
       </c>
       <c r="D163" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E163">
-        <v>0.9892773306687686</v>
+        <v>0.8514774719944485</v>
       </c>
       <c r="F163" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G163">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -11599,16 +11599,16 @@
         <v>423</v>
       </c>
       <c r="D164" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E164">
-        <v>0.8849689076497846</v>
+        <v>0.8273311808095296</v>
       </c>
       <c r="F164" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G164">
-        <v>0.4057732796758245</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -11622,16 +11622,16 @@
         <v>424</v>
       </c>
       <c r="D165" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E165">
-        <v>0.8984832251100145</v>
+        <v>0.9429852608917981</v>
       </c>
       <c r="F165" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G165">
-        <v>0.3500179048815796</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -11645,16 +11645,16 @@
         <v>425</v>
       </c>
       <c r="D166" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E166">
-        <v>0.9217848738668258</v>
+        <v>0.9771168583189908</v>
       </c>
       <c r="F166" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G166">
-        <v>0.428036482988633</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -11668,16 +11668,16 @@
         <v>426</v>
       </c>
       <c r="D167" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E167">
-        <v>0.6927854951305858</v>
+        <v>0.6213644595340834</v>
       </c>
       <c r="F167" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G167">
-        <v>0.5926855907980001</v>
+        <v>0.3779474789608219</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -11691,16 +11691,16 @@
         <v>427</v>
       </c>
       <c r="D168" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E168">
-        <v>0.7005940827312478</v>
+        <v>0.7884271166330425</v>
       </c>
       <c r="F168" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G168">
-        <v>0.3380682601386209</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -11714,16 +11714,16 @@
         <v>428</v>
       </c>
       <c r="D169" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E169">
-        <v>0.764077554036709</v>
+        <v>0.9689272847779308</v>
       </c>
       <c r="F169" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G169">
-        <v>0.4267857218205565</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -11737,16 +11737,16 @@
         <v>429</v>
       </c>
       <c r="D170" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E170">
-        <v>0.8758252131656428</v>
+        <v>0.8432452687822571</v>
       </c>
       <c r="F170" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G170">
-        <v>0.5926855907980001</v>
+        <v>0.4269813893637526</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -11760,16 +11760,16 @@
         <v>430</v>
       </c>
       <c r="D171" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E171">
-        <v>0.8293457016558762</v>
+        <v>0.9260661229531088</v>
       </c>
       <c r="F171" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G171">
-        <v>0.3407659090418792</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -11783,16 +11783,16 @@
         <v>431</v>
       </c>
       <c r="D172" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E172">
-        <v>0.9343270293096361</v>
+        <v>0.8982863588977047</v>
       </c>
       <c r="F172" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G172">
-        <v>0.592685590798</v>
+        <v>0.5668659952193073</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -11806,16 +11806,16 @@
         <v>432</v>
       </c>
       <c r="D173" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E173">
-        <v>0.7385232930693429</v>
+        <v>0.8756314563074488</v>
       </c>
       <c r="F173" t="s">
         <v>516</v>
       </c>
       <c r="G173">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -11829,16 +11829,16 @@
         <v>433</v>
       </c>
       <c r="D174" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E174">
-        <v>0.558376025439174</v>
+        <v>0.8885648359355486</v>
       </c>
       <c r="F174" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G174">
-        <v>0.3500179048815797</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -11852,16 +11852,16 @@
         <v>434</v>
       </c>
       <c r="D175" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E175">
-        <v>0.6273672311632863</v>
+        <v>0.9656522968130152</v>
       </c>
       <c r="F175" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G175">
-        <v>0.4280364829886329</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -11875,16 +11875,16 @@
         <v>435</v>
       </c>
       <c r="D176" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E176">
-        <v>0.9197508697448848</v>
+        <v>0.3689646694583177</v>
       </c>
       <c r="F176" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G176">
-        <v>0.5926855907980001</v>
+        <v>0.3953293862417652</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -11898,16 +11898,16 @@
         <v>436</v>
       </c>
       <c r="D177" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E177">
-        <v>0.7248957053429729</v>
+        <v>0.9631900253093582</v>
       </c>
       <c r="F177" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G177">
-        <v>0.3561687899849204</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -11924,13 +11924,13 @@
         <v>516</v>
       </c>
       <c r="E178">
-        <v>0.9573465529881308</v>
+        <v>0.2538387214487539</v>
       </c>
       <c r="F178" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G178">
-        <v>0.592685590798</v>
+        <v>0.5859654401412061</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -11947,13 +11947,13 @@
         <v>516</v>
       </c>
       <c r="E179">
-        <v>0.821097068092328</v>
+        <v>0.5628034856629341</v>
       </c>
       <c r="F179" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G179">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -11970,13 +11970,13 @@
         <v>516</v>
       </c>
       <c r="E180">
-        <v>0.487668293579829</v>
+        <v>0.9603252480289922</v>
       </c>
       <c r="F180" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G180">
-        <v>0.3407659090418791</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -11990,16 +11990,16 @@
         <v>440</v>
       </c>
       <c r="D181" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E181">
-        <v>0.9859479303969612</v>
+        <v>0.9059606870607717</v>
       </c>
       <c r="F181" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G181">
-        <v>0.5926855907980001</v>
+        <v>0.490821151026878</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -12013,16 +12013,16 @@
         <v>441</v>
       </c>
       <c r="D182" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E182">
-        <v>0.9090044506047485</v>
+        <v>0.8738928924546325</v>
       </c>
       <c r="F182" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G182">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -12036,16 +12036,16 @@
         <v>442</v>
       </c>
       <c r="D183" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E183">
-        <v>0.8181937262430926</v>
+        <v>0.8666129236538944</v>
       </c>
       <c r="F183" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G183">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -12059,16 +12059,16 @@
         <v>443</v>
       </c>
       <c r="D184" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E184">
-        <v>0.8711471158317395</v>
+        <v>0.9999996985284488</v>
       </c>
       <c r="F184" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G184">
-        <v>0.2600060836850668</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -12082,16 +12082,16 @@
         <v>444</v>
       </c>
       <c r="D185" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E185">
-        <v>0.9259962390986164</v>
+        <v>0.999999867137124</v>
       </c>
       <c r="F185" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G185">
-        <v>0.4186150070333094</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -12105,16 +12105,16 @@
         <v>445</v>
       </c>
       <c r="D186" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E186">
-        <v>0.7202413085153132</v>
+        <v>0.9999997751789089</v>
       </c>
       <c r="F186" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G186">
-        <v>0.5926855907980001</v>
+        <v>0.4124717160575733</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -12128,16 +12128,16 @@
         <v>446</v>
       </c>
       <c r="D187" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E187">
-        <v>0.9306121496162731</v>
+        <v>0.9999997081597058</v>
       </c>
       <c r="F187" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G187">
-        <v>0.2401451428239332</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -12151,16 +12151,16 @@
         <v>447</v>
       </c>
       <c r="D188" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E188">
-        <v>0.9282001444504564</v>
+        <v>0.9999998671574868</v>
       </c>
       <c r="F188" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G188">
-        <v>0.592685590798</v>
+        <v>0.4998912288236261</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -12174,16 +12174,16 @@
         <v>448</v>
       </c>
       <c r="D189" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E189">
-        <v>0.5332299329232207</v>
+        <v>0.9999998179024375</v>
       </c>
       <c r="F189" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G189">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -12197,16 +12197,16 @@
         <v>449</v>
       </c>
       <c r="D190" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E190">
-        <v>0.8319809124113379</v>
+        <v>0.8472097392357225</v>
       </c>
       <c r="F190" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G190">
-        <v>0.3490252688461752</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -12220,16 +12220,16 @@
         <v>450</v>
       </c>
       <c r="D191" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E191">
-        <v>0.9316176816174248</v>
+        <v>0.4110231761548837</v>
       </c>
       <c r="F191" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G191">
-        <v>0.592685590798</v>
+        <v>0.6906046191645736</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -12246,13 +12246,13 @@
         <v>516</v>
       </c>
       <c r="E192">
-        <v>0.7372465119853653</v>
+        <v>0.4961007641521357</v>
       </c>
       <c r="F192" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G192">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -12269,13 +12269,13 @@
         <v>516</v>
       </c>
       <c r="E193">
-        <v>0.8450952942632303</v>
+        <v>0.5232320667473253</v>
       </c>
       <c r="F193" t="s">
         <v>516</v>
       </c>
       <c r="G193">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -12289,16 +12289,16 @@
         <v>453</v>
       </c>
       <c r="D194" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E194">
-        <v>0.6570601862405118</v>
+        <v>0.9999996798050705</v>
       </c>
       <c r="F194" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G194">
-        <v>0.2401451428239333</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -12312,16 +12312,16 @@
         <v>454</v>
       </c>
       <c r="D195" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E195">
-        <v>0.9759499984000557</v>
+        <v>0.9999998567624416</v>
       </c>
       <c r="F195" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G195">
-        <v>0.5926855907980001</v>
+        <v>0.5674967377642829</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -12335,16 +12335,16 @@
         <v>455</v>
       </c>
       <c r="D196" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E196">
-        <v>0.8346665265493896</v>
+        <v>0.9999998204587724</v>
       </c>
       <c r="F196" t="s">
         <v>516</v>
       </c>
       <c r="G196">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -12358,16 +12358,16 @@
         <v>456</v>
       </c>
       <c r="D197" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E197">
-        <v>0.9420297730704232</v>
+        <v>0.9999998052207768</v>
       </c>
       <c r="F197" t="s">
         <v>516</v>
       </c>
       <c r="G197">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -12381,16 +12381,16 @@
         <v>457</v>
       </c>
       <c r="D198" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E198">
-        <v>0.9645984417955205</v>
+        <v>0.7803003772496675</v>
       </c>
       <c r="F198" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G198">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -12404,16 +12404,16 @@
         <v>458</v>
       </c>
       <c r="D199" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E199">
-        <v>0.752359326740212</v>
+        <v>0.8640866770305959</v>
       </c>
       <c r="F199" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G199">
-        <v>0.2315889867457846</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -12427,16 +12427,16 @@
         <v>459</v>
       </c>
       <c r="D200" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E200">
-        <v>0.8645823525739053</v>
+        <v>0.9656161866529404</v>
       </c>
       <c r="F200" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G200">
-        <v>0.4156406088712165</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -12450,16 +12450,16 @@
         <v>460</v>
       </c>
       <c r="D201" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E201">
-        <v>0.8264719570465053</v>
+        <v>0.3408418129301257</v>
       </c>
       <c r="F201" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G201">
-        <v>0.5926855907980001</v>
+        <v>0.3980750131842618</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -12473,16 +12473,16 @@
         <v>461</v>
       </c>
       <c r="D202" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E202">
-        <v>0.8535295545944231</v>
+        <v>0.9709071155016883</v>
       </c>
       <c r="F202" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G202">
-        <v>0.2035160069527154</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -12496,16 +12496,16 @@
         <v>462</v>
       </c>
       <c r="D203" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E203">
-        <v>0.9596888793151361</v>
+        <v>0.3631075010147264</v>
       </c>
       <c r="F203" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G203">
-        <v>0.592685590798</v>
+        <v>0.54824367199143</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -12522,13 +12522,13 @@
         <v>516</v>
       </c>
       <c r="E204">
-        <v>0.6560312938761316</v>
+        <v>0.6292857561144565</v>
       </c>
       <c r="F204" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G204">
-        <v>0.2510454092020001</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -12542,16 +12542,16 @@
         <v>464</v>
       </c>
       <c r="D205" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E205">
-        <v>0.8185656790226054</v>
+        <v>0.9407402511226345</v>
       </c>
       <c r="F205" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G205">
-        <v>0.2427825267538297</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -12565,16 +12565,16 @@
         <v>465</v>
       </c>
       <c r="D206" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E206">
-        <v>0.9568551890247795</v>
+        <v>0.797700376323822</v>
       </c>
       <c r="F206" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G206">
-        <v>0.5926855907980002</v>
+        <v>0.5557052161334805</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -12588,16 +12588,16 @@
         <v>466</v>
       </c>
       <c r="D207" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E207">
-        <v>0.7214765018330076</v>
+        <v>0.7562327789785878</v>
       </c>
       <c r="F207" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G207">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -12611,16 +12611,16 @@
         <v>467</v>
       </c>
       <c r="D208" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E208">
-        <v>0.8987962855192009</v>
+        <v>0.7412641732769772</v>
       </c>
       <c r="F208" t="s">
         <v>516</v>
       </c>
       <c r="G208">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -12637,13 +12637,13 @@
         <v>516</v>
       </c>
       <c r="E209">
-        <v>0.5738980207705365</v>
+        <v>0.8761913816319394</v>
       </c>
       <c r="F209" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G209">
-        <v>0.2035160069527154</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -12657,16 +12657,16 @@
         <v>469</v>
       </c>
       <c r="D210" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E210">
-        <v>0.9900279174506433</v>
+        <v>0.1371852502365989</v>
       </c>
       <c r="F210" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G210">
-        <v>0.5926855907980001</v>
+        <v>0.6960757080326934</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -12683,13 +12683,13 @@
         <v>516</v>
       </c>
       <c r="E211">
-        <v>0.9023445036227669</v>
+        <v>0.4257967777942545</v>
       </c>
       <c r="F211" t="s">
         <v>516</v>
       </c>
       <c r="G211">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -12706,13 +12706,13 @@
         <v>516</v>
       </c>
       <c r="E212">
-        <v>0.9754640696358691</v>
+        <v>0.6147326380543801</v>
       </c>
       <c r="F212" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G212">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -12726,16 +12726,16 @@
         <v>472</v>
       </c>
       <c r="D213" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E213">
-        <v>0.9937946956092693</v>
+        <v>0.742508767503353</v>
       </c>
       <c r="F213" t="s">
         <v>516</v>
       </c>
       <c r="G213">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -12749,16 +12749,16 @@
         <v>473</v>
       </c>
       <c r="D214" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E214">
-        <v>0.7966327248524169</v>
+        <v>0.9999982800062583</v>
       </c>
       <c r="F214" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G214">
-        <v>0.129818268234541</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -12772,16 +12772,16 @@
         <v>474</v>
       </c>
       <c r="D215" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E215">
-        <v>0.9810603491510759</v>
+        <v>0.9999992387885361</v>
       </c>
       <c r="F215" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G215">
-        <v>0.592685590798</v>
+        <v>0.5781756295457484</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -12798,13 +12798,13 @@
         <v>518</v>
       </c>
       <c r="E216">
-        <v>0.8876159407553024</v>
+        <v>0.9999990573662008</v>
       </c>
       <c r="F216" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G216">
-        <v>0.2510454092020001</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -12818,16 +12818,16 @@
         <v>476</v>
       </c>
       <c r="D217" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E217">
-        <v>0.9540081216838138</v>
+        <v>0.9999989727300695</v>
       </c>
       <c r="F217" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G217">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -12841,16 +12841,16 @@
         <v>477</v>
       </c>
       <c r="D218" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E218">
-        <v>0.7918468378650786</v>
+        <v>0.8505022287841618</v>
       </c>
       <c r="F218" t="s">
         <v>516</v>
       </c>
       <c r="G218">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -12864,16 +12864,16 @@
         <v>478</v>
       </c>
       <c r="D219" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E219">
-        <v>0.9872310635793355</v>
+        <v>0.9999989822658382</v>
       </c>
       <c r="F219" t="s">
         <v>516</v>
       </c>
       <c r="G219">
-        <v>0.2510454092019999</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -12887,16 +12887,16 @@
         <v>479</v>
       </c>
       <c r="D220" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E220">
-        <v>0.8984832251100145</v>
+        <v>0.8053278952772419</v>
       </c>
       <c r="F220" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G220">
-        <v>0.3500179048815797</v>
+        <v>0.207010027354</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -12910,16 +12910,16 @@
         <v>480</v>
       </c>
       <c r="D221" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E221">
-        <v>0.9217848738668261</v>
+        <v>0.9496165490006692</v>
       </c>
       <c r="F221" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G221">
-        <v>0.4280364829886329</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -12936,13 +12936,13 @@
         <v>516</v>
       </c>
       <c r="E222">
-        <v>0.6927854951305857</v>
+        <v>0.1968137129811698</v>
       </c>
       <c r="F222" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G222">
-        <v>0.5926855907980001</v>
+        <v>0.4124717160575733</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -12956,16 +12956,16 @@
         <v>482</v>
       </c>
       <c r="D223" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E223">
-        <v>0.9485726212594406</v>
+        <v>0.9848621981870037</v>
       </c>
       <c r="F223" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G223">
-        <v>0.3561687899849202</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -12979,16 +12979,16 @@
         <v>483</v>
       </c>
       <c r="D224" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E224">
-        <v>0.8368826483677625</v>
+        <v>0.5368135184021373</v>
       </c>
       <c r="F224" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G224">
-        <v>0.5926855907980001</v>
+        <v>0.4998912288236261</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -13005,13 +13005,13 @@
         <v>517</v>
       </c>
       <c r="E225">
-        <v>0.5251395619820938</v>
+        <v>0.7406459952538543</v>
       </c>
       <c r="F225" t="s">
         <v>516</v>
       </c>
       <c r="G225">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -13025,16 +13025,16 @@
         <v>485</v>
       </c>
       <c r="D226" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E226">
-        <v>0.8293457016558764</v>
+        <v>0.6865374656961297</v>
       </c>
       <c r="F226" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G226">
-        <v>0.3407659090418792</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -13048,16 +13048,16 @@
         <v>486</v>
       </c>
       <c r="D227" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E227">
-        <v>0.9343270293096362</v>
+        <v>0.8895718812789957</v>
       </c>
       <c r="F227" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G227">
-        <v>0.5926855907980001</v>
+        <v>0.6906046191645736</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -13071,16 +13071,16 @@
         <v>487</v>
       </c>
       <c r="D228" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E228">
-        <v>0.7385232930693429</v>
+        <v>0.878538994001281</v>
       </c>
       <c r="F228" t="s">
         <v>516</v>
       </c>
       <c r="G228">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -13094,16 +13094,16 @@
         <v>488</v>
       </c>
       <c r="D229" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E229">
-        <v>0.8506832699940131</v>
+        <v>0.8663678391596878</v>
       </c>
       <c r="F229" t="s">
         <v>520</v>
       </c>
       <c r="G229">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -13117,16 +13117,16 @@
         <v>489</v>
       </c>
       <c r="D230" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E230">
-        <v>0.7248957053429728</v>
+        <v>0.9691035605521182</v>
       </c>
       <c r="F230" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G230">
-        <v>0.3561687899849204</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -13140,16 +13140,16 @@
         <v>490</v>
       </c>
       <c r="D231" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E231">
-        <v>0.9573465529881309</v>
+        <v>0.2922495239156394</v>
       </c>
       <c r="F231" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G231">
-        <v>0.592685590798</v>
+        <v>0.5674967377642828</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -13166,13 +13166,13 @@
         <v>516</v>
       </c>
       <c r="E232">
-        <v>0.821097068092328</v>
+        <v>0.5897930701414612</v>
       </c>
       <c r="F232" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G232">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -13189,13 +13189,13 @@
         <v>516</v>
       </c>
       <c r="E233">
-        <v>0.8998796795822439</v>
+        <v>0.5723200407360766</v>
       </c>
       <c r="F233" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G233">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -13209,16 +13209,16 @@
         <v>493</v>
       </c>
       <c r="D234" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E234">
-        <v>0.9656322650212238</v>
+        <v>0.8658611900533874</v>
       </c>
       <c r="F234" t="s">
         <v>519</v>
       </c>
       <c r="G234">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -13232,16 +13232,16 @@
         <v>494</v>
       </c>
       <c r="D235" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E235">
-        <v>0.9306121496162733</v>
+        <v>0.9999996158649719</v>
       </c>
       <c r="F235" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G235">
-        <v>0.2401451428239332</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -13255,16 +13255,16 @@
         <v>495</v>
       </c>
       <c r="D236" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E236">
-        <v>0.9282001444504566</v>
+        <v>0.9999998486813821</v>
       </c>
       <c r="F236" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G236">
-        <v>0.5926855907980001</v>
+        <v>0.6341704297184956</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -13278,16 +13278,16 @@
         <v>496</v>
       </c>
       <c r="D237" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E237">
-        <v>0.533229932923221</v>
+        <v>0.9999998230174946</v>
       </c>
       <c r="F237" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G237">
-        <v>0.2510454092020001</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -13301,16 +13301,16 @@
         <v>497</v>
       </c>
       <c r="D238" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E238">
-        <v>0.8381050737709084</v>
+        <v>0.9999998042416982</v>
       </c>
       <c r="F238" t="s">
         <v>516</v>
       </c>
       <c r="G238">
-        <v>0.2510454092020001</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -13324,16 +13324,16 @@
         <v>498</v>
       </c>
       <c r="D239" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E239">
-        <v>0.8450952942632302</v>
+        <v>0.3614585918160604</v>
       </c>
       <c r="F239" t="s">
         <v>516</v>
       </c>
       <c r="G239">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -13347,16 +13347,16 @@
         <v>499</v>
       </c>
       <c r="D240" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E240">
-        <v>0.9420297730704231</v>
+        <v>0.999999805004119</v>
       </c>
       <c r="F240" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G240">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -13370,16 +13370,16 @@
         <v>500</v>
       </c>
       <c r="D241" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E241">
-        <v>0.853529554594423</v>
+        <v>0.9615512463007673</v>
       </c>
       <c r="F241" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G241">
-        <v>0.2035160069527154</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -13393,16 +13393,16 @@
         <v>501</v>
       </c>
       <c r="D242" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E242">
-        <v>0.959688879315136</v>
+        <v>0.2707842266637823</v>
       </c>
       <c r="F242" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G242">
-        <v>0.592685590798</v>
+        <v>0.5781756295457484</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -13419,13 +13419,13 @@
         <v>516</v>
       </c>
       <c r="E243">
-        <v>0.6560312938761316</v>
+        <v>0.5895297792010742</v>
       </c>
       <c r="F243" t="s">
         <v>516</v>
       </c>
       <c r="G243">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -13442,13 +13442,13 @@
         <v>516</v>
       </c>
       <c r="E244">
-        <v>0.9050648703897358</v>
+        <v>0.6305503422793338</v>
       </c>
       <c r="F244" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G244">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -13462,16 +13462,16 @@
         <v>504</v>
       </c>
       <c r="D245" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E245">
-        <v>0.8987962855192007</v>
+        <v>0.7410356185014702</v>
       </c>
       <c r="F245" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G245">
-        <v>0.2510454092020001</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -13488,13 +13488,13 @@
         <v>516</v>
       </c>
       <c r="E246">
-        <v>0.9754640696358688</v>
+        <v>0.2657465754753765</v>
       </c>
       <c r="F246" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G246">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -13508,16 +13508,16 @@
         <v>506</v>
       </c>
       <c r="D247" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E247">
-        <v>0.9540081216838137</v>
+        <v>0.9999989745548202</v>
       </c>
       <c r="F247" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G247">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -13531,16 +13531,16 @@
         <v>507</v>
       </c>
       <c r="D248" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E248">
-        <v>0.9485726212594408</v>
+        <v>0.9421057105625467</v>
       </c>
       <c r="F248" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G248">
-        <v>0.3561687899849203</v>
+        <v>0.270008972646</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -13557,13 +13557,13 @@
         <v>516</v>
       </c>
       <c r="E249">
-        <v>0.8368826483677624</v>
+        <v>0.1746208534459882</v>
       </c>
       <c r="F249" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G249">
-        <v>0.5926855907980001</v>
+        <v>0.6341704297184956</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -13577,16 +13577,16 @@
         <v>509</v>
       </c>
       <c r="D250" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E250">
-        <v>0.5251395619820937</v>
+        <v>0.4908102432874286</v>
       </c>
       <c r="F250" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G250">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -13603,13 +13603,13 @@
         <v>516</v>
       </c>
       <c r="E251">
-        <v>0.6726169273229986</v>
+        <v>0.7689066829903247</v>
       </c>
       <c r="F251" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G251">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -13623,16 +13623,16 @@
         <v>511</v>
       </c>
       <c r="D252" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E252">
-        <v>0.8506832699940131</v>
+        <v>0.8672746451120913</v>
       </c>
       <c r="F252" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G252">
-        <v>0.251045409202</v>
+        <v>0.296025027354</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -13649,13 +13649,13 @@
         <v>516</v>
       </c>
       <c r="E253">
-        <v>0.8998796795822439</v>
+        <v>0.6159923005774103</v>
       </c>
       <c r="F253" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G253">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -13669,16 +13669,16 @@
         <v>513</v>
       </c>
       <c r="D254" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E254">
-        <v>0.8381050737709084</v>
+        <v>0.9999998058042978</v>
       </c>
       <c r="F254" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G254">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -13695,13 +13695,13 @@
         <v>516</v>
       </c>
       <c r="E255">
-        <v>0.9050648703897358</v>
+        <v>0.5612072129889158</v>
       </c>
       <c r="F255" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G255">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -13718,13 +13718,13 @@
         <v>516</v>
       </c>
       <c r="E256">
-        <v>0.6726169273229985</v>
+        <v>0.4542136458505869</v>
       </c>
       <c r="F256" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G256">
-        <v>0.251045409202</v>
+        <v>0.2960250273540001</v>
       </c>
     </row>
   </sheetData>
